--- a/ISEF App WinForm/Data/Hlavicky/hlppalloro.xlsx
+++ b/ISEF App WinForm/Data/Hlavicky/hlppalloro.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miriama.cisarova\source\repos\isef\ISEF App WinForm\Data\Hlavicky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ondrej.ferenci\AppData\Roaming\CVTI SR\ISEF Data Processing\Hlavicky\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2010" windowWidth="28800" windowHeight="15885" tabRatio="886"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="886"/>
   </bookViews>
   <sheets>
     <sheet name="Zostava a" sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Zostava a'!$A$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Zostava a'!$A$1:$H$68</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -48,47 +48,47 @@
     <t>Nedaňové</t>
   </si>
   <si>
+    <t xml:space="preserve">Príjmy v r. xxxx </t>
+  </si>
+  <si>
+    <t>Všetky zdroje - Príjmy</t>
+  </si>
+  <si>
     <t>2xx</t>
   </si>
   <si>
     <t>4xx+5xx</t>
   </si>
   <si>
+    <t>Agentúra MŠVVaŠ SR pre ŠF EÚ</t>
+  </si>
+  <si>
     <t>311+321+331+332</t>
   </si>
   <si>
+    <t>312+314+322+324+34x</t>
+  </si>
+  <si>
     <t>2+3+4+5+91x+92x+93x</t>
   </si>
   <si>
     <t>Prevodové príjmy</t>
   </si>
   <si>
+    <t>Prevodová FO príjmová</t>
+  </si>
+  <si>
     <t>91x+92x</t>
   </si>
   <si>
     <t>93x</t>
-  </si>
-  <si>
-    <t>312+314+315+322+324+34x+325</t>
-  </si>
-  <si>
-    <t>PFO príjmová</t>
-  </si>
-  <si>
-    <t>06 Výskumná agentúra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Príjmy v r. xxxx </t>
-  </si>
-  <si>
-    <t>Všetky zdroje - Príjmy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -150,20 +150,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -290,15 +276,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -306,12 +296,27 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,40 +329,22 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -664,314 +651,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="19" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14" style="28" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="28" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="33" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9999999999</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9999999999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>9999999999</v>
+      </c>
+      <c r="F13" s="8">
+        <v>999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="22">
-        <v>99999999999</v>
-      </c>
-      <c r="C10" s="22">
-        <v>9999999999</v>
-      </c>
-      <c r="D10" s="22">
-        <v>999999999</v>
-      </c>
-      <c r="E10" s="22">
-        <v>999999999</v>
-      </c>
-      <c r="F10" s="23">
-        <v>99999999</v>
-      </c>
-      <c r="G10" s="23">
-        <v>99999999</v>
-      </c>
-      <c r="H10" s="23">
-        <v>99999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>6</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>8</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>50</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>67</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>